--- a/TVELtest/TVELtest/bin/Debug/Табличные выводы/ИБПО (Средний возраст)/УЭХК ИБПО_LAR (Средний возраст)(01.09.2015 23-59-15).xlsx
+++ b/TVELtest/TVELtest/bin/Debug/Табличные выводы/ИБПО (Средний возраст)/УЭХК ИБПО_LAR (Средний возраст)(01.09.2015 23-59-15).xlsx
@@ -1,31 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergey\Desktop\TVEL_Project\TVELtest\TVELtest\bin\Debug\Табличные выводы\ИБПО (Средний возраст)\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9570"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Мужчины" sheetId="1" r:id="rId1"/>
     <sheet name="Женщины" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="21">
   <si>
     <t>Возрастные группы</t>
   </si>
@@ -85,12 +75,15 @@
   </si>
   <si>
     <t>Взвешенные величины</t>
+  </si>
+  <si>
+    <t>Б</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="1">
     <font>
       <sz val="12"/>
@@ -165,8 +158,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -180,14 +188,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -234,7 +234,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -269,7 +269,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -446,17 +446,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -757,6 +759,310 @@
       </c>
       <c r="G13" s="3">
         <v>79.861229059999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A16" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickTop="1">
+      <c r="A18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="6">
+        <v>97.063008153947195</v>
+      </c>
+      <c r="C18" s="6">
+        <v>99.664629554667187</v>
+      </c>
+      <c r="D18" s="6">
+        <v>96.747016732555011</v>
+      </c>
+      <c r="E18" s="6">
+        <v>89.771245547681048</v>
+      </c>
+      <c r="F18" s="6">
+        <v>99.776169482643837</v>
+      </c>
+      <c r="G18" s="6">
+        <v>89.590821848367497</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="6">
+        <v>94.303475388329133</v>
+      </c>
+      <c r="C19" s="6">
+        <v>99.740728295863846</v>
+      </c>
+      <c r="D19" s="6">
+        <v>94.072866829247388</v>
+      </c>
+      <c r="E19" s="6">
+        <v>80.612242773220288</v>
+      </c>
+      <c r="F19" s="6">
+        <v>99.767462798918231</v>
+      </c>
+      <c r="G19" s="6">
+        <v>80.461063879410403</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="6">
+        <v>94.573370431750519</v>
+      </c>
+      <c r="C20" s="6">
+        <v>99.427469635410063</v>
+      </c>
+      <c r="D20" s="6">
+        <v>94.061131527728818</v>
+      </c>
+      <c r="E20" s="6">
+        <v>79.236543064174626</v>
+      </c>
+      <c r="F20" s="6">
+        <v>98.099157042939993</v>
+      </c>
+      <c r="G20" s="6">
+        <v>78.038379538395446</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="6">
+        <v>93.893631304958078</v>
+      </c>
+      <c r="C21" s="6">
+        <v>99.57755711546254</v>
+      </c>
+      <c r="D21" s="6">
+        <v>93.521107511273144</v>
+      </c>
+      <c r="E21" s="6">
+        <v>75.661460153411667</v>
+      </c>
+      <c r="F21" s="6">
+        <v>99.033632498487705</v>
+      </c>
+      <c r="G21" s="6">
+        <v>75.106941501318204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="6">
+        <v>93.832745724808277</v>
+      </c>
+      <c r="C22" s="6">
+        <v>99.321777396521924</v>
+      </c>
+      <c r="D22" s="6">
+        <v>93.235345799152057</v>
+      </c>
+      <c r="E22" s="6">
+        <v>77.595098067055844</v>
+      </c>
+      <c r="F22" s="6">
+        <v>97.810965490252158</v>
+      </c>
+      <c r="G22" s="6">
+        <v>76.270577296699614</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="6">
+        <v>95.894424557139203</v>
+      </c>
+      <c r="C23" s="6">
+        <v>98.98296510788326</v>
+      </c>
+      <c r="D23" s="6">
+        <v>94.958790777271588</v>
+      </c>
+      <c r="E23" s="6">
+        <v>82.951246860191972</v>
+      </c>
+      <c r="F23" s="6">
+        <v>99.061607956279005</v>
+      </c>
+      <c r="G23" s="6">
+        <v>82.304510065756887</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="6">
+        <v>96.44099297892248</v>
+      </c>
+      <c r="C24" s="6">
+        <v>99.485541558144348</v>
+      </c>
+      <c r="D24" s="6">
+        <v>95.962411623128702</v>
+      </c>
+      <c r="E24" s="6">
+        <v>84.339263894033536</v>
+      </c>
+      <c r="F24" s="6">
+        <v>98.867384521894735</v>
+      </c>
+      <c r="G24" s="6">
+        <v>83.532185457479684</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="6">
+        <v>97.743066391488156</v>
+      </c>
+      <c r="C25" s="6">
+        <v>99.604928723670056</v>
+      </c>
+      <c r="D25" s="6">
+        <v>97.36559094633111</v>
+      </c>
+      <c r="E25" s="6">
+        <v>92.735226005176656</v>
+      </c>
+      <c r="F25" s="6">
+        <v>99.268712843785465</v>
+      </c>
+      <c r="G25" s="6">
+        <v>92.105993995037423</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="6">
+        <v>98.125719572644527</v>
+      </c>
+      <c r="C26" s="6">
+        <v>99.822957217814704</v>
+      </c>
+      <c r="D26" s="6">
+        <v>97.955243875871588</v>
+      </c>
+      <c r="E26" s="6">
+        <v>94.19829205487008</v>
+      </c>
+      <c r="F26" s="6">
+        <v>99.822957217814704</v>
+      </c>
+      <c r="G26" s="6">
+        <v>94.041178726803949</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="6">
+        <v>98.766029048248413</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="6">
+        <v>98.766029048248413</v>
+      </c>
+      <c r="E27" s="6">
+        <v>95.860197792545293</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="6">
+        <v>95.860197792545293</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A28" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="6">
+        <v>0</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="7">
+        <v>95.470606430000004</v>
+      </c>
+      <c r="C29" s="7">
+        <v>99.447113830000006</v>
+      </c>
+      <c r="D29" s="7">
+        <v>94.967809990000006</v>
+      </c>
+      <c r="E29" s="7">
+        <v>82.547512850000004</v>
+      </c>
+      <c r="F29" s="7">
+        <v>98.819790260000005</v>
+      </c>
+      <c r="G29" s="7">
+        <v>81.772549049999995</v>
       </c>
     </row>
   </sheetData>
@@ -765,10 +1071,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -1071,6 +1379,310 @@
         <v>85.070278740000006</v>
       </c>
     </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A16" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
+      <c r="A17" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickTop="1">
+      <c r="A18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="9">
+        <v>98.118647972553404</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="9">
+        <v>98.118647972553404</v>
+      </c>
+      <c r="E18" s="9">
+        <v>97.151817734374035</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="9">
+        <v>97.151817734374035</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="9">
+        <v>93.354873770339481</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="9">
+        <v>93.354873770339481</v>
+      </c>
+      <c r="E19" s="9">
+        <v>78.136128852229447</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" s="9">
+        <v>78.136128852229447</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="9">
+        <v>93.707309093180555</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="9">
+        <v>93.707309093180555</v>
+      </c>
+      <c r="E20" s="9">
+        <v>80.145008416031047</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="9">
+        <v>80.145008416031047</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="9">
+        <v>94.065497172114362</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="9">
+        <v>94.065497172114362</v>
+      </c>
+      <c r="E21" s="9">
+        <v>80.339445329437069</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="9">
+        <v>80.339445329437069</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="9">
+        <v>94.776488029171674</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="9">
+        <v>94.776488029171674</v>
+      </c>
+      <c r="E22" s="9">
+        <v>85.505957885815917</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="9">
+        <v>85.505957885815917</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="9">
+        <v>95.424783326390525</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="9">
+        <v>95.424783326390525</v>
+      </c>
+      <c r="E23" s="9">
+        <v>86.770935258598286</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="9">
+        <v>86.770935258598286</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="9">
+        <v>96.653216954070615</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="9">
+        <v>96.653216954070615</v>
+      </c>
+      <c r="E24" s="9">
+        <v>90.206987422134787</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="9">
+        <v>90.206987422134787</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="9">
+        <v>97.862107413340297</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="9">
+        <v>97.862107413340297</v>
+      </c>
+      <c r="E25" s="9">
+        <v>93.773671913787268</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="9">
+        <v>93.773671913787268</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="9">
+        <v>98.294853577444471</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="9">
+        <v>98.294853577444471</v>
+      </c>
+      <c r="E26" s="9">
+        <v>93.990712742950535</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="9">
+        <v>93.990712742950535</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="9">
+        <v>0</v>
+      </c>
+      <c r="C27" s="9">
+        <v>0</v>
+      </c>
+      <c r="D27" s="9">
+        <v>0</v>
+      </c>
+      <c r="E27" s="9">
+        <v>0</v>
+      </c>
+      <c r="F27" s="9">
+        <v>0</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A28" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="9">
+        <v>0</v>
+      </c>
+      <c r="C28" s="9">
+        <v>0</v>
+      </c>
+      <c r="D28" s="9">
+        <v>0</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0</v>
+      </c>
+      <c r="F28" s="9">
+        <v>0</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A29" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="10">
+        <v>95.565860880000002</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="10">
+        <v>95.565860880000002</v>
+      </c>
+      <c r="E29" s="10">
+        <v>86.675142190000003</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="10">
+        <v>86.675142190000003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TVELtest/TVELtest/bin/Debug/Табличные выводы/ИБПО (Средний возраст)/УЭХК ИБПО_LAR (Средний возраст)(01.09.2015 23-59-15).xlsx
+++ b/TVELtest/TVELtest/bin/Debug/Табличные выводы/ИБПО (Средний возраст)/УЭХК ИБПО_LAR (Средний возраст)(01.09.2015 23-59-15).xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergey\Desktop\TVEL_Project\TVELtest\TVELtest\bin\Debug\Табличные выводы\ИБПО (Средний возраст)\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="9570" activeTab="1"/>
   </bookViews>
@@ -10,6 +15,10 @@
     <sheet name="Мужчины" sheetId="1" r:id="rId1"/>
     <sheet name="Женщины" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
@@ -83,7 +92,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1">
     <font>
       <sz val="12"/>
@@ -188,7 +197,6910 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1"/>
+              <a:t>Внешнее</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>облучение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>мужчины</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5067868209476067E-2"/>
+          <c:y val="0.13030076594989232"/>
+          <c:w val="0.74563745952420157"/>
+          <c:h val="0.71929705260737276"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>96.755568007449682</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.689405085915595</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.950862799037665</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.118161385983555</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.189189446094574</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95.351543788083418</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95.819824942750117</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97.216661601908285</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97.58402754738357</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98.267972618874651</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$B$18:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>97.063008153947195</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.303475388329133</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.573370431750519</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.893631304958078</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.832745724808277</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95.894424557139203</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96.44099297892248</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97.743066391488156</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98.125719572644527</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98.766029048248413</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>88.664129701811035</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.003027324142039</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.802970255698099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73.283937103607173</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75.039584794700815</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81.190218872264481</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82.244038447546714</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>91.172118207429307</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92.099791661909194</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94.5517452468833</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$E$18:$E$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>89.771245547681048</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.612242773220288</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.236543064174626</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.661460153411667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>77.595098067055844</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82.951246860191972</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84.339263894033536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92.735226005176656</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94.19829205487008</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95.860197792545293</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="196178520"/>
+        <c:axId val="196178128"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="196178520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>Возрастная группа</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="196178128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="196178128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>ИБПО,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="196178520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80664865231329475"/>
+          <c:y val="0.13581303046591589"/>
+          <c:w val="0.17709117624405299"/>
+          <c:h val="0.71363970117805897"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1"/>
+              <a:t>Внутреннее</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>облучение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>мужчины</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5067868209476067E-2"/>
+          <c:y val="0.13030076594989232"/>
+          <c:w val="0.74563745952420157"/>
+          <c:h val="0.71929705260737276"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[2]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$C$2:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>99.670936408859973</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.739038557246047</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.421056812691575</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.581873783674169</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.346003584486624</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.056066492571532</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99.521130397231218</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99.629654137546524</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.837763637617883</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[2]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$C$18:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>99.664629554667187</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.740728295863846</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>99.427469635410063</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.57755711546254</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>99.321777396521924</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98.98296510788326</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99.485541558144348</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99.604928723670056</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.822957217814704</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[2]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$F$2:$F$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>99.780383379794259</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.767966993476321</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.112155819078282</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.032973295838332</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.884021072150148</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.09858578835194</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.964798495593868</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99.284243612141026</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.837763637617883</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[2]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$F$18:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>99.776169482643837</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>99.767462798918231</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.099157042939993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99.033632498487705</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.810965490252158</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.061607956279005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>98.867384521894735</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99.268712843785465</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.822957217814704</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="476458376"/>
+        <c:axId val="476459944"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="476458376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>Возрастная группа</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="476459944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="476459944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+          <c:min val="90"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>ИБПО,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="476458376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80664865231329475"/>
+          <c:y val="0.13581303046591589"/>
+          <c:w val="0.17709117624405299"/>
+          <c:h val="0.71363970117805897"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1"/>
+              <a:t>Внешнее и внутреннее</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>облучение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>мужчины</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5067868209476067E-2"/>
+          <c:y val="0.13030076594989232"/>
+          <c:w val="0.74563745952420157"/>
+          <c:h val="0.71929705260737276"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[2]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>96.447477462381954</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.460302709927021</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.439662655018466</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92.755498697919691</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>92.62098805377326</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94.492946686341597</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95.380063070156723</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96.866606603849434</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97.429528135696458</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98.267972618874651</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[2]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$D$18:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>96.747016732555011</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.072866829247388</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.061131527728818</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.521107511273144</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.235345799152057</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94.958790777271588</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95.962411623128702</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97.36559094633111</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97.955243875871588</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98.766029048248413</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[2]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>88.491438741012502</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.858133537085067</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76.65538867507999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72.763244669485431</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73.84175701140029</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.59500794565983</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81.542525973174733</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>90.576776327021577</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91.962157797871086</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94.5517452468833</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[2]Мужчины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Мужчины!$G$18:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>89.590821848367497</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.461063879410403</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.038379538395446</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.106941501318204</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.270577296699614</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82.304510065756887</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83.532185457479684</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92.105993995037423</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>94.041178726803949</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95.860197792545293</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="481570896"/>
+        <c:axId val="527203368"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="481570896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>Возрастная группа</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="527203368"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="527203368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>ИБПО,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="481570896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80664865231329475"/>
+          <c:y val="0.13581303046591589"/>
+          <c:w val="0.17709117624405299"/>
+          <c:h val="0.71363970117805897"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1"/>
+              <a:t>Внешнее</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:t>облучение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>женщины</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.5067868209476067E-2"/>
+          <c:y val="0.13030076594989232"/>
+          <c:w val="0.74563745952420157"/>
+          <c:h val="0.71929705260737276"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Женщины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>98.030807934645168</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.873123928264022</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92.968861055124293</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.238182080334241</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94.44468465336135</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94.879118967153715</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96.034445269524397</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97.297132147227032</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97.782955524047523</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Женщины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$B$18:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>98.118647972553404</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.354873770339481</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.707309093180555</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.065497172114362</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94.776488029171674</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95.424783326390525</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96.653216954070615</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97.862107413340297</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98.294853577444471</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Женщины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>96.980557134950388</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.402959181800171</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.494558564647832</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78.497573879638693</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84.67712717834921</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84.656448944040704</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88.37295639780838</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92.094263746050061</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92.409212858716984</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>[1]Женщины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$E$18:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>97.151817734374035</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.136128852229447</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80.145008416031047</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.339445329437069</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.505957885815917</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86.770935258598286</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90.206987422134787</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>93.773671913787268</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>93.990712742950535</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="470373000"/>
+        <c:axId val="470362416"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="470373000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>Возрастная группа</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="470362416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="470362416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:t>ИБПО,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="470373000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80664865231329475"/>
+          <c:y val="0.13581303046591589"/>
+          <c:w val="0.17709117624405299"/>
+          <c:h val="0.71363970117805897"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>153081</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>181657</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>14970</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>48307</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>91170</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>153081</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Мужчины"/>
+      <sheetName val="Женщины"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>18-24</v>
+          </cell>
+          <cell r="B2">
+            <v>83.939694417134589</v>
+          </cell>
+          <cell r="C2">
+            <v>85.155033934214003</v>
+          </cell>
+          <cell r="D2">
+            <v>73.224598564531732</v>
+          </cell>
+          <cell r="E2">
+            <v>55.101445864730451</v>
+          </cell>
+          <cell r="F2">
+            <v>69.841377850571064</v>
+          </cell>
+          <cell r="G2">
+            <v>44.510633631811693</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>25-29</v>
+          </cell>
+          <cell r="B3">
+            <v>86.087867515599399</v>
+          </cell>
+          <cell r="C3">
+            <v>83.533830900585656</v>
+          </cell>
+          <cell r="D3">
+            <v>73.598331555049057</v>
+          </cell>
+          <cell r="E3">
+            <v>60.83512933887237</v>
+          </cell>
+          <cell r="F3">
+            <v>67.576842916606921</v>
+          </cell>
+          <cell r="G3">
+            <v>47.090019347966127</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>30-34</v>
+          </cell>
+          <cell r="B4">
+            <v>87.045771368678274</v>
+          </cell>
+          <cell r="C4">
+            <v>83.277953572392605</v>
+          </cell>
+          <cell r="D4">
+            <v>74.094793543077586</v>
+          </cell>
+          <cell r="E4">
+            <v>62.993987709520155</v>
+          </cell>
+          <cell r="F4">
+            <v>66.725567276286867</v>
+          </cell>
+          <cell r="G4">
+            <v>47.935429912048448</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>35-39</v>
+          </cell>
+          <cell r="B5">
+            <v>87.051642009545617</v>
+          </cell>
+          <cell r="C5">
+            <v>83.31357350633553</v>
+          </cell>
+          <cell r="D5">
+            <v>74.127200785950606</v>
+          </cell>
+          <cell r="E5">
+            <v>60.404685183923462</v>
+          </cell>
+          <cell r="F5">
+            <v>66.427482122402125</v>
+          </cell>
+          <cell r="G5">
+            <v>46.276692790553625</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>40-44</v>
+          </cell>
+          <cell r="B6">
+            <v>87.275257938253972</v>
+          </cell>
+          <cell r="C6">
+            <v>83.964957219375023</v>
+          </cell>
+          <cell r="D6">
+            <v>74.80668926397739</v>
+          </cell>
+          <cell r="E6">
+            <v>59.031250327938558</v>
+          </cell>
+          <cell r="F6">
+            <v>67.558441261162912</v>
+          </cell>
+          <cell r="G6">
+            <v>45.993194381125775</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>45-49</v>
+          </cell>
+          <cell r="B7">
+            <v>88.822111613189989</v>
+          </cell>
+          <cell r="C7">
+            <v>85.582177245422656</v>
+          </cell>
+          <cell r="D7">
+            <v>77.260567180933947</v>
+          </cell>
+          <cell r="E7">
+            <v>64.166206702505818</v>
+          </cell>
+          <cell r="F7">
+            <v>68.683205508754995</v>
+          </cell>
+          <cell r="G7">
+            <v>49.641690680270358</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>50-54</v>
+          </cell>
+          <cell r="B8">
+            <v>91.837588214983384</v>
+          </cell>
+          <cell r="C8">
+            <v>85.79496708305355</v>
+          </cell>
+          <cell r="D8">
+            <v>79.715823331184396</v>
+          </cell>
+          <cell r="E8">
+            <v>70.844956845724738</v>
+          </cell>
+          <cell r="F8">
+            <v>70.454175039901045</v>
+          </cell>
+          <cell r="G8">
+            <v>54.617460560468693</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>55-59</v>
+          </cell>
+          <cell r="B9">
+            <v>95.334203608867043</v>
+          </cell>
+          <cell r="C9">
+            <v>86.03556841719184</v>
+          </cell>
+          <cell r="D9">
+            <v>82.558824538739628</v>
+          </cell>
+          <cell r="E9">
+            <v>84.069485225769711</v>
+          </cell>
+          <cell r="F9">
+            <v>73.243049686160688</v>
+          </cell>
+          <cell r="G9">
+            <v>64.315969084106129</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>60-64</v>
+          </cell>
+          <cell r="B10">
+            <v>95.402029208063979</v>
+          </cell>
+          <cell r="C10">
+            <v>88.349903522570941</v>
+          </cell>
+          <cell r="D10">
+            <v>84.7411243007666</v>
+          </cell>
+          <cell r="E10">
+            <v>82.428681293362345</v>
+          </cell>
+          <cell r="F10">
+            <v>76.225127735382458</v>
+          </cell>
+          <cell r="G10">
+            <v>65.570011012559206</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>65-69</v>
+          </cell>
+          <cell r="B11">
+            <v>96.822684123683985</v>
+          </cell>
+          <cell r="C11">
+            <v>91.975670116391882</v>
+          </cell>
+          <cell r="D11">
+            <v>89.280401496629068</v>
+          </cell>
+          <cell r="E11">
+            <v>89.968403393023749</v>
+          </cell>
+          <cell r="F11">
+            <v>82.371875196676996</v>
+          </cell>
+          <cell r="G11">
+            <v>75.441822053987437</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>70+</v>
+          </cell>
+          <cell r="B12">
+            <v>98.344656176603863</v>
+          </cell>
+          <cell r="C12">
+            <v>95.596434108967372</v>
+          </cell>
+          <cell r="D12">
+            <v>94.082150296379737</v>
+          </cell>
+          <cell r="E12">
+            <v>95.12817109702641</v>
+          </cell>
+          <cell r="F12">
+            <v>88.258357202943145</v>
+          </cell>
+          <cell r="G12">
+            <v>84.440628920919252</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>85.291230773062765</v>
+          </cell>
+          <cell r="C18">
+            <v>84.756724432319643</v>
+          </cell>
+          <cell r="D18">
+            <v>73.947981869545103</v>
+          </cell>
+          <cell r="E18">
+            <v>57.576064965336137</v>
+          </cell>
+          <cell r="F18">
+            <v>69.028995017257486</v>
+          </cell>
+          <cell r="G18">
+            <v>45.756056176810198</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>87.271377911752566</v>
+          </cell>
+          <cell r="C19">
+            <v>83.592440925453062</v>
+          </cell>
+          <cell r="D19">
+            <v>74.508198215489926</v>
+          </cell>
+          <cell r="E19">
+            <v>62.955766658810461</v>
+          </cell>
+          <cell r="F19">
+            <v>67.730488312681473</v>
+          </cell>
+          <cell r="G19">
+            <v>48.429321853995404</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>88.332795369582215</v>
+          </cell>
+          <cell r="C20">
+            <v>83.415591399946209</v>
+          </cell>
+          <cell r="D20">
+            <v>75.136985482015234</v>
+          </cell>
+          <cell r="E20">
+            <v>65.742490839707713</v>
+          </cell>
+          <cell r="F20">
+            <v>67.180261673843987</v>
+          </cell>
+          <cell r="G20">
+            <v>49.760435084581182</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>88.395970780164646</v>
+          </cell>
+          <cell r="C21">
+            <v>83.186714509170756</v>
+          </cell>
+          <cell r="D21">
+            <v>74.99666307210525</v>
+          </cell>
+          <cell r="E21">
+            <v>62.746892589688379</v>
+          </cell>
+          <cell r="F21">
+            <v>66.338587480111514</v>
+          </cell>
+          <cell r="G21">
+            <v>47.593312208957862</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>88.463249686408417</v>
+          </cell>
+          <cell r="C22">
+            <v>83.464031870318934</v>
+          </cell>
+          <cell r="D22">
+            <v>75.270622362148345</v>
+          </cell>
+          <cell r="E22">
+            <v>61.451099865782943</v>
+          </cell>
+          <cell r="F22">
+            <v>66.683015768008858</v>
+          </cell>
+          <cell r="G22">
+            <v>47.015476867255757</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>89.999909086562624</v>
+          </cell>
+          <cell r="C23">
+            <v>84.816775917478083</v>
+          </cell>
+          <cell r="D23">
+            <v>77.511414257480723</v>
+          </cell>
+          <cell r="E23">
+            <v>67.411651984744694</v>
+          </cell>
+          <cell r="F23">
+            <v>66.896286664723746</v>
+          </cell>
+          <cell r="G23">
+            <v>50.548487875939507</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>92.972493293618186</v>
+          </cell>
+          <cell r="C24">
+            <v>84.924644677838728</v>
+          </cell>
+          <cell r="D24">
+            <v>79.801475974797157</v>
+          </cell>
+          <cell r="E24">
+            <v>74.44326643688035</v>
+          </cell>
+          <cell r="F24">
+            <v>68.575852631333206</v>
+          </cell>
+          <cell r="G24">
+            <v>55.507255790013943</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>96.19060099930131</v>
+          </cell>
+          <cell r="C25">
+            <v>85.096044432978886</v>
+          </cell>
+          <cell r="D25">
+            <v>82.321339902026622</v>
+          </cell>
+          <cell r="E25">
+            <v>87.145825234593161</v>
+          </cell>
+          <cell r="F25">
+            <v>71.01865275196829</v>
+          </cell>
+          <cell r="G25">
+            <v>64.283952161227916</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>96.474483462137854</v>
+          </cell>
+          <cell r="C26">
+            <v>87.385784600610592</v>
+          </cell>
+          <cell r="D26">
+            <v>84.681136543744117</v>
+          </cell>
+          <cell r="E26">
+            <v>86.300055424386102</v>
+          </cell>
+          <cell r="F26">
+            <v>73.816218362341971</v>
+          </cell>
+          <cell r="G26">
+            <v>66.072927411357355</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>97.642271934451585</v>
+          </cell>
+          <cell r="C27">
+            <v>90.919021081533259</v>
+          </cell>
+          <cell r="D27">
+            <v>88.965269605324778</v>
+          </cell>
+          <cell r="E27">
+            <v>92.22803491553789</v>
+          </cell>
+          <cell r="F27">
+            <v>79.584077457966174</v>
+          </cell>
+          <cell r="G27">
+            <v>74.581136020844525</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>98.836053142368371</v>
+          </cell>
+          <cell r="C28">
+            <v>94.323632019451253</v>
+          </cell>
+          <cell r="D28">
+            <v>93.286859930295961</v>
+          </cell>
+          <cell r="E28">
+            <v>96.306211248200526</v>
+          </cell>
+          <cell r="F28">
+            <v>86.738471585647048</v>
+          </cell>
+          <cell r="G28">
+            <v>83.944654043623956</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>18-24</v>
+          </cell>
+          <cell r="B2">
+            <v>89.411020846973869</v>
+          </cell>
+          <cell r="C2">
+            <v>76.817540106922621</v>
+          </cell>
+          <cell r="D2">
+            <v>70.411706840167469</v>
+          </cell>
+          <cell r="E2">
+            <v>79.141828896836302</v>
+          </cell>
+          <cell r="F2">
+            <v>54.722330066387123</v>
+          </cell>
+          <cell r="G2">
+            <v>47.824765018240683</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>25-29</v>
+          </cell>
+          <cell r="B3">
+            <v>90.573378454025843</v>
+          </cell>
+          <cell r="C3">
+            <v>76.635856604928065</v>
+          </cell>
+          <cell r="D3">
+            <v>70.974775231024239</v>
+          </cell>
+          <cell r="E3">
+            <v>72.929861513019844</v>
+          </cell>
+          <cell r="F3">
+            <v>53.464746672276746</v>
+          </cell>
+          <cell r="G3">
+            <v>44.611437706394042</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>30-34</v>
+          </cell>
+          <cell r="B4">
+            <v>91.823637100861504</v>
+          </cell>
+          <cell r="C4">
+            <v>77.14003537966542</v>
+          </cell>
+          <cell r="D4">
+            <v>72.181843827366706</v>
+          </cell>
+          <cell r="E4">
+            <v>79.417808717043187</v>
+          </cell>
+          <cell r="F4">
+            <v>52.636939682320559</v>
+          </cell>
+          <cell r="G4">
+            <v>46.31825545303132</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>35-39</v>
+          </cell>
+          <cell r="B5">
+            <v>89.914716638593262</v>
+          </cell>
+          <cell r="C5">
+            <v>77.8811176384352</v>
+          </cell>
+          <cell r="D5">
+            <v>71.624203046732291</v>
+          </cell>
+          <cell r="E5">
+            <v>78.021876943189</v>
+          </cell>
+          <cell r="F5">
+            <v>52.164503210323531</v>
+          </cell>
+          <cell r="G5">
+            <v>45.481159972454876</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>40-44</v>
+          </cell>
+          <cell r="B6">
+            <v>89.613474696485355</v>
+          </cell>
+          <cell r="C6">
+            <v>77.765814653266318</v>
+          </cell>
+          <cell r="D6">
+            <v>71.335884790360382</v>
+          </cell>
+          <cell r="E6">
+            <v>75.647358549629416</v>
+          </cell>
+          <cell r="F6">
+            <v>52.141419550683551</v>
+          </cell>
+          <cell r="G6">
+            <v>44.646950969746889</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>45-49</v>
+          </cell>
+          <cell r="B7">
+            <v>90.470631618723345</v>
+          </cell>
+          <cell r="C7">
+            <v>75.665203424092496</v>
+          </cell>
+          <cell r="D7">
+            <v>70.079682721652645</v>
+          </cell>
+          <cell r="E7">
+            <v>70.43189560026245</v>
+          </cell>
+          <cell r="F7">
+            <v>52.50713722596943</v>
+          </cell>
+          <cell r="G7">
+            <v>43.023177319508513</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>50-54</v>
+          </cell>
+          <cell r="B8">
+            <v>90.668474452646066</v>
+          </cell>
+          <cell r="C8">
+            <v>74.642353880175406</v>
+          </cell>
+          <cell r="D8">
+            <v>69.316956845538712</v>
+          </cell>
+          <cell r="E8">
+            <v>66.604348730721497</v>
+          </cell>
+          <cell r="F8">
+            <v>52.449582192961316</v>
+          </cell>
+          <cell r="G8">
+            <v>41.527922632885804</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>55-59</v>
+          </cell>
+          <cell r="B9">
+            <v>93.563854067114221</v>
+          </cell>
+          <cell r="C9">
+            <v>75.754616415110974</v>
+          </cell>
+          <cell r="D9">
+            <v>72.002206429487288</v>
+          </cell>
+          <cell r="E9">
+            <v>77.799353783124374</v>
+          </cell>
+          <cell r="F9">
+            <v>54.528345685272164</v>
+          </cell>
+          <cell r="G9">
+            <v>47.185765752345098</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>60-64</v>
+          </cell>
+          <cell r="B10">
+            <v>95.389669892465477</v>
+          </cell>
+          <cell r="C10">
+            <v>75.579920681604932</v>
+          </cell>
+          <cell r="D10">
+            <v>72.916099534123475</v>
+          </cell>
+          <cell r="E10">
+            <v>82.417676991374094</v>
+          </cell>
+          <cell r="F10">
+            <v>56.260351897854306</v>
+          </cell>
+          <cell r="G10">
+            <v>50.231178360011647</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>65-69</v>
+          </cell>
+          <cell r="B11">
+            <v>92.996568910708035</v>
+          </cell>
+          <cell r="C11">
+            <v>78.218938163931483</v>
+          </cell>
+          <cell r="D11">
+            <v>73.867471446320266</v>
+          </cell>
+          <cell r="E11">
+            <v>72.735679930628748</v>
+          </cell>
+          <cell r="F11">
+            <v>58.403822172510225</v>
+          </cell>
+          <cell r="G11">
+            <v>47.913996894730445</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>70+</v>
+          </cell>
+          <cell r="B12">
+            <v>94.650779127332228</v>
+          </cell>
+          <cell r="C12">
+            <v>78.579793903916226</v>
+          </cell>
+          <cell r="D12">
+            <v>75.238317568769162</v>
+          </cell>
+          <cell r="E12">
+            <v>86.889479333664113</v>
+          </cell>
+          <cell r="F12">
+            <v>60.667160121719277</v>
+          </cell>
+          <cell r="G12">
+            <v>55.579255482569295</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="B18">
+            <v>89.884804728424513</v>
+          </cell>
+          <cell r="C18">
+            <v>76.904322818746124</v>
+          </cell>
+          <cell r="D18">
+            <v>70.778718400329453</v>
+          </cell>
+          <cell r="E18">
+            <v>80.239077089886621</v>
+          </cell>
+          <cell r="F18">
+            <v>55.107750427087829</v>
+          </cell>
+          <cell r="G18">
+            <v>48.522321752145153</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="B19">
+            <v>91.154758114530537</v>
+          </cell>
+          <cell r="C19">
+            <v>77.357086004302332</v>
+          </cell>
+          <cell r="D19">
+            <v>71.955717713590403</v>
+          </cell>
+          <cell r="E19">
+            <v>74.693504694377992</v>
+          </cell>
+          <cell r="F19">
+            <v>54.570467812794412</v>
+          </cell>
+          <cell r="G19">
+            <v>46.055295883469583</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="B20">
+            <v>92.633765062872143</v>
+          </cell>
+          <cell r="C20">
+            <v>78.210963737683983</v>
+          </cell>
+          <cell r="D20">
+            <v>73.631469311685265</v>
+          </cell>
+          <cell r="E20">
+            <v>81.176540821721929</v>
+          </cell>
+          <cell r="F20">
+            <v>54.222726882492019</v>
+          </cell>
+          <cell r="G20">
+            <v>48.166454659703177</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="B21">
+            <v>91.208411725607931</v>
+          </cell>
+          <cell r="C21">
+            <v>79.13134008694081</v>
+          </cell>
+          <cell r="D21">
+            <v>73.523223860250027</v>
+          </cell>
+          <cell r="E21">
+            <v>80.69996694072357</v>
+          </cell>
+          <cell r="F21">
+            <v>54.007660375320079</v>
+          </cell>
+          <cell r="G21">
+            <v>47.829619312046148</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="B22">
+            <v>90.23121033413544</v>
+          </cell>
+          <cell r="C22">
+            <v>79.144452104951654</v>
+          </cell>
+          <cell r="D22">
+            <v>72.898012924732612</v>
+          </cell>
+          <cell r="E22">
+            <v>76.988914680961656</v>
+          </cell>
+          <cell r="F22">
+            <v>54.249135789589396</v>
+          </cell>
+          <cell r="G22">
+            <v>46.679999191302919</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="B23">
+            <v>91.513845551738214</v>
+          </cell>
+          <cell r="C23">
+            <v>77.324013035922405</v>
+          </cell>
+          <cell r="D23">
+            <v>72.150370581197222</v>
+          </cell>
+          <cell r="E23">
+            <v>73.717949055873603</v>
+          </cell>
+          <cell r="F23">
+            <v>54.616372966179576</v>
+          </cell>
+          <cell r="G23">
+            <v>45.714551055667968</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="B24">
+            <v>92.080464751914164</v>
+          </cell>
+          <cell r="C24">
+            <v>76.704245165018094</v>
+          </cell>
+          <cell r="D24">
+            <v>71.956839669012012</v>
+          </cell>
+          <cell r="E24">
+            <v>71.031874260794211</v>
+          </cell>
+          <cell r="F24">
+            <v>55.444343909364889</v>
+          </cell>
+          <cell r="G24">
+            <v>45.219235297167764</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="B25">
+            <v>94.805658425834665</v>
+          </cell>
+          <cell r="C25">
+            <v>78.28983893914679</v>
+          </cell>
+          <cell r="D25">
+            <v>75.069471682335973</v>
+          </cell>
+          <cell r="E25">
+            <v>81.293532013247841</v>
+          </cell>
+          <cell r="F25">
+            <v>57.171925555457875</v>
+          </cell>
+          <cell r="G25">
+            <v>50.524565259504065</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="B26">
+            <v>96.436580689537081</v>
+          </cell>
+          <cell r="C26">
+            <v>79.077410446829674</v>
+          </cell>
+          <cell r="D26">
+            <v>76.832143815210131</v>
+          </cell>
+          <cell r="E26">
+            <v>85.463170230732672</v>
+          </cell>
+          <cell r="F26">
+            <v>60.477753868221768</v>
+          </cell>
+          <cell r="G26">
+            <v>54.836408959392706</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="B27">
+            <v>94.900066872326818</v>
+          </cell>
+          <cell r="C27">
+            <v>82.805561881652679</v>
+          </cell>
+          <cell r="D27">
+            <v>79.277510460499997</v>
+          </cell>
+          <cell r="E27">
+            <v>78.180811162482499</v>
+          </cell>
+          <cell r="F27">
+            <v>66.068164102373231</v>
+          </cell>
+          <cell r="G27">
+            <v>55.782231746641841</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="B28">
+            <v>95.588238254263899</v>
+          </cell>
+          <cell r="C28">
+            <v>86.83259519120908</v>
+          </cell>
+          <cell r="D28">
+            <v>83.486619881896232</v>
+          </cell>
+          <cell r="E28">
+            <v>92.117087576133088</v>
+          </cell>
+          <cell r="F28">
+            <v>75.639357490135112</v>
+          </cell>
+          <cell r="G28">
+            <v>71.040818975564449</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Мужчины"/>
+      <sheetName val="Женщины"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>18-24</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>25-29</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>30-34</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>35-39</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>40-44</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>45-49</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>50-54</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>55-59</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>60-64</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>65-69</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>70+</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -446,18 +7358,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T45" sqref="T45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1067,15 +7979,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1685,5 +8598,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/TVELtest/TVELtest/bin/Debug/Табличные выводы/ИБПО (Средний возраст)/УЭХК ИБПО_LAR (Средний возраст)(01.09.2015 23-59-15).xlsx
+++ b/TVELtest/TVELtest/bin/Debug/Табличные выводы/ИБПО (Средний возраст)/УЭХК ИБПО_LAR (Средний возраст)(01.09.2015 23-59-15).xlsx
@@ -17,7 +17,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId3"/>
-    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
@@ -242,26 +241,50 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Внешнее</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>облучение</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>, </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>мужчины</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU" sz="1800" b="1"/>
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -274,26 +297,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -302,10 +305,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.5067868209476067E-2"/>
+          <c:x val="7.4748073464986617E-2"/>
           <c:y val="0.13030076594989232"/>
-          <c:w val="0.74563745952420157"/>
-          <c:h val="0.71929705260737276"/>
+          <c:w val="0.72595726272223349"/>
+          <c:h val="0.71929705260737298"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -771,11 +774,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="196178520"/>
-        <c:axId val="196178128"/>
+        <c:axId val="417075336"/>
+        <c:axId val="417080824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="196178520"/>
+        <c:axId val="417075336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -815,7 +818,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Возрастная группа</a:t>
                 </a:r>
               </a:p>
@@ -830,26 +837,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -888,7 +875,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196178128"/>
+        <c:crossAx val="417080824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -896,11 +883,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196178128"/>
+        <c:axId val="417080824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -938,8 +924,16 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>ИБПО</a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="ru-RU" sz="1100" b="1"/>
-                  <a:t>ИБПО,</a:t>
+                  <a:t>,</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
@@ -958,26 +952,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1010,7 +984,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196178520"/>
+        <c:crossAx val="417075336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -1029,10 +1003,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.80664865231329475"/>
-          <c:y val="0.13581303046591589"/>
-          <c:w val="0.17709117624405299"/>
-          <c:h val="0.71363970117805897"/>
+          <c:x val="0.80664865231329497"/>
+          <c:y val="0.13581303046591592"/>
+          <c:w val="0.16876830471097479"/>
+          <c:h val="0.78043078469733373"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1095,7 +1069,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1135,26 +1109,50 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Внутреннее</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>облучение</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>, </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>мужчины</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU" sz="1800" b="1"/>
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1167,26 +1165,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1195,10 +1173,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.5067868209476067E-2"/>
+          <c:x val="7.4748073464986617E-2"/>
           <c:y val="0.13030076594989232"/>
-          <c:w val="0.74563745952420157"/>
-          <c:h val="0.71929705260737276"/>
+          <c:w val="0.72595726272223349"/>
+          <c:h val="0.71929705260737298"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1236,7 +1214,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[2]Мужчины!$A$2:$A$12</c:f>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -1345,7 +1323,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[2]Мужчины!$A$2:$A$12</c:f>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -1455,7 +1433,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[2]Мужчины!$A$2:$A$12</c:f>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -1565,7 +1543,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[2]Мужчины!$A$2:$A$12</c:f>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -1652,11 +1630,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="476458376"/>
-        <c:axId val="476459944"/>
+        <c:axId val="417100424"/>
+        <c:axId val="417085136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="476458376"/>
+        <c:axId val="417100424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1696,7 +1674,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Возрастная группа</a:t>
                 </a:r>
               </a:p>
@@ -1711,26 +1693,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1769,7 +1731,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476459944"/>
+        <c:crossAx val="417085136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1777,11 +1739,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="476459944"/>
+        <c:axId val="417085136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
-          <c:min val="90"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1819,8 +1780,16 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>ИБПО</a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="ru-RU" sz="1100" b="1"/>
-                  <a:t>ИБПО,</a:t>
+                  <a:t>,</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
@@ -1839,26 +1808,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1891,7 +1840,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476458376"/>
+        <c:crossAx val="417100424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="5"/>
@@ -1910,10 +1859,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.80664865231329475"/>
-          <c:y val="0.13581303046591589"/>
-          <c:w val="0.17709117624405299"/>
-          <c:h val="0.71363970117805897"/>
+          <c:x val="0.80664865231329497"/>
+          <c:y val="0.13581303046591592"/>
+          <c:w val="0.17043289064522366"/>
+          <c:h val="0.76636949741416249"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1976,7 +1925,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2016,26 +1965,42 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1"/>
-              <a:t>Внешнее и внутреннее</a:t>
+              <a:rPr lang="ru-RU" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Суммарное </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>облучение</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>, </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>мужчины</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU" sz="1800" b="1"/>
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2048,26 +2013,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2076,10 +2021,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.5067868209476067E-2"/>
+          <c:x val="7.4748073464986617E-2"/>
           <c:y val="0.13030076594989232"/>
-          <c:w val="0.74563745952420157"/>
-          <c:h val="0.71929705260737276"/>
+          <c:w val="0.72595726272223349"/>
+          <c:h val="0.71929705260737298"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2117,7 +2062,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[2]Мужчины!$A$2:$A$12</c:f>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -2229,7 +2174,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[2]Мужчины!$A$2:$A$12</c:f>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -2342,7 +2287,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[2]Мужчины!$A$2:$A$12</c:f>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -2455,7 +2400,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[2]Мужчины!$A$2:$A$12</c:f>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -2545,11 +2490,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="481570896"/>
-        <c:axId val="527203368"/>
+        <c:axId val="417085528"/>
+        <c:axId val="417080040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="481570896"/>
+        <c:axId val="417085528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2589,7 +2534,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Возрастная группа</a:t>
                 </a:r>
               </a:p>
@@ -2604,26 +2553,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2662,7 +2591,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="527203368"/>
+        <c:crossAx val="417080040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2670,7 +2599,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="527203368"/>
+        <c:axId val="417080040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
@@ -2711,14 +2640,26 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>ИБПО,</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t> %</a:t>
                 </a:r>
-                <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2731,26 +2672,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2783,7 +2704,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="481570896"/>
+        <c:crossAx val="417085528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -2802,10 +2723,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.80664865231329475"/>
-          <c:y val="0.13581303046591589"/>
-          <c:w val="0.17709117624405299"/>
-          <c:h val="0.71363970117805897"/>
+          <c:x val="0.80664865231329497"/>
+          <c:y val="0.13581303046591592"/>
+          <c:w val="0.17042454068241469"/>
+          <c:h val="0.7766437737556785"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2868,7 +2789,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2908,29 +2829,41 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1"/>
-              <a:t>Внешнее</a:t>
+              <a:rPr lang="ru-RU" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Внешнее и внутреннее </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>облучение</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" baseline="0"/>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>, </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
               </a:rPr>
-              <a:t>женщины</a:t>
+              <a:t>мужчины</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU">
-              <a:effectLst/>
+            <a:endParaRPr lang="ru-RU" sz="1800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
             </a:endParaRPr>
           </a:p>
         </c:rich>
@@ -2944,26 +2877,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2972,10 +2885,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.5067868209476067E-2"/>
+          <c:x val="7.4748073464986617E-2"/>
           <c:y val="0.13030076594989232"/>
-          <c:w val="0.74563745952420157"/>
-          <c:h val="0.71929705260737276"/>
+          <c:w val="0.72595726272223349"/>
+          <c:h val="0.71929705260737298"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3013,7 +2926,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Женщины!$A$2:$A$12</c:f>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -3054,36 +2967,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Женщины!$B$2:$B$10</c:f>
+              <c:f>Мужчины!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>98.030807934645168</c:v>
+                  <c:v>96.447477462381954</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>92.873123928264022</c:v>
+                  <c:v>93.460302709927021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>92.968861055124293</c:v>
+                  <c:v>93.439662655018466</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>93.238182080334241</c:v>
+                  <c:v>92.755498697919691</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>94.44468465336135</c:v>
+                  <c:v>92.62098805377326</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>94.879118967153715</c:v>
+                  <c:v>94.492946686341597</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>96.034445269524397</c:v>
+                  <c:v>95.380063070156723</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>97.297132147227032</c:v>
+                  <c:v>96.866606603849434</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>97.782955524047523</c:v>
+                  <c:v>97.429528135696458</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98.267972618874651</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3122,7 +3038,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Женщины!$A$2:$A$12</c:f>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -3163,36 +3079,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Женщины!$B$18:$B$26</c:f>
+              <c:f>Мужчины!$D$18:$D$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>98.118647972553404</c:v>
+                  <c:v>96.747016732555011</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93.354873770339481</c:v>
+                  <c:v>94.072866829247388</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>93.707309093180555</c:v>
+                  <c:v>94.061131527728818</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>94.065497172114362</c:v>
+                  <c:v>93.521107511273144</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>94.776488029171674</c:v>
+                  <c:v>93.235345799152057</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>95.424783326390525</c:v>
+                  <c:v>94.958790777271588</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>96.653216954070615</c:v>
+                  <c:v>95.962411623128702</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>97.862107413340297</c:v>
+                  <c:v>97.36559094633111</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>98.294853577444471</c:v>
+                  <c:v>97.955243875871588</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98.766029048248413</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3232,7 +3151,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Женщины!$A$2:$A$12</c:f>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -3273,36 +3192,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Женщины!$E$2:$E$10</c:f>
+              <c:f>Мужчины!$G$2:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>96.980557134950388</c:v>
+                  <c:v>88.491438741012502</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77.402959181800171</c:v>
+                  <c:v>78.858133537085067</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78.494558564647832</c:v>
+                  <c:v>76.65538867507999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>78.497573879638693</c:v>
+                  <c:v>72.763244669485431</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>84.67712717834921</c:v>
+                  <c:v>73.84175701140029</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>84.656448944040704</c:v>
+                  <c:v>80.59500794565983</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>88.37295639780838</c:v>
+                  <c:v>81.542525973174733</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>92.094263746050061</c:v>
+                  <c:v>90.576776327021577</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92.409212858716984</c:v>
+                  <c:v>91.962157797871086</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>94.5517452468833</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3342,7 +3264,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>[1]Женщины!$A$2:$A$12</c:f>
+              <c:f>[1]Мужчины!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -3383,36 +3305,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Женщины!$E$18:$E$26</c:f>
+              <c:f>Мужчины!$G$18:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>97.151817734374035</c:v>
+                  <c:v>89.590821848367497</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78.136128852229447</c:v>
+                  <c:v>80.461063879410403</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80.145008416031047</c:v>
+                  <c:v>78.038379538395446</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80.339445329437069</c:v>
+                  <c:v>75.106941501318204</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>85.505957885815917</c:v>
+                  <c:v>76.270577296699614</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>86.770935258598286</c:v>
+                  <c:v>82.304510065756887</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90.206987422134787</c:v>
+                  <c:v>83.532185457479684</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>93.773671913787268</c:v>
+                  <c:v>92.105993995037423</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>93.990712742950535</c:v>
+                  <c:v>94.041178726803949</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>95.860197792545293</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3429,11 +3354,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="470373000"/>
-        <c:axId val="470362416"/>
+        <c:axId val="417077688"/>
+        <c:axId val="417082392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="470373000"/>
+        <c:axId val="417077688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3473,7 +3398,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>Возрастная группа</a:t>
                 </a:r>
               </a:p>
@@ -3488,26 +3417,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3546,7 +3455,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470362416"/>
+        <c:crossAx val="417082392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3554,11 +3463,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="470362416"/>
+        <c:axId val="417082392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="110"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3596,14 +3504,26 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t>ИБПО,</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0"/>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
                   <a:t> %</a:t>
                 </a:r>
-                <a:endParaRPr lang="ru-RU" sz="1100" b="1"/>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -3616,26 +3536,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3668,7 +3568,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="470373000"/>
+        <c:crossAx val="417077688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10"/>
@@ -3687,10 +3587,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.80664865231329475"/>
-          <c:y val="0.13581303046591589"/>
-          <c:w val="0.17709117624405299"/>
-          <c:h val="0.71363970117805897"/>
+          <c:x val="0.80664865231329497"/>
+          <c:y val="0.13581303046591592"/>
+          <c:w val="0.17042454068241469"/>
+          <c:h val="0.7766437737556785"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3753,2202 +3653,893 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Внешнее</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>облучение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>, </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="1" i="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>женщины</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.6702676260780242E-2"/>
+          <c:y val="0.13030076594989232"/>
+          <c:w val="0.72400263811478316"/>
+          <c:h val="0.71929705260737298"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Женщины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$B$2:$B$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>98.030807934645168</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.873123928264022</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92.968861055124293</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>93.238182080334241</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94.44468465336135</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>94.879118967153715</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96.034445269524397</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97.297132147227032</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97.782955524047523</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Женщины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$B$18:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>98.118647972553404</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>93.354873770339481</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93.707309093180555</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.065497172114362</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>94.776488029171674</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>95.424783326390525</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96.653216954070615</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97.862107413340297</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98.294853577444471</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ИБПО (Метод А) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Женщины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$E$2:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>96.980557134950388</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.402959181800171</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.494558564647832</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78.497573879638693</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84.67712717834921</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84.656448944040704</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>88.37295639780838</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92.094263746050061</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92.409212858716984</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ИБПО (Метод Б) по верхней гр. ДИ</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:prstDash val="sysDot"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="0070C0"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Женщины!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18-24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25-29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30-34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35-39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40-44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45-49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50-54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55-59</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60-64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65-69</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70+</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Женщины!$E$18:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>97.151817734374035</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.136128852229447</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80.145008416031047</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80.339445329437069</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.505957885815917</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>86.770935258598286</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90.206987422134787</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>93.773671913787268</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>93.990712742950535</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="417087488"/>
+        <c:axId val="417075728"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="417087488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Возрастная группа</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="417075728"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="417075728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="110"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>ИБПО,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1100" b="1" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t> %</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1100" b="1">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="417087488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80664865231329497"/>
+          <c:y val="0.13581303046591592"/>
+          <c:w val="0.17376268262674568"/>
+          <c:h val="0.76777615587074255"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>707572</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>717097</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>153081</xdr:rowOff>
+      <xdr:rowOff>102113</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5968,19 +4559,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>181657</xdr:rowOff>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>14970</xdr:rowOff>
+      <xdr:colOff>33338</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>156542</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvPr id="10" name="Диаграмма 9"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6002,17 +4593,17 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>48307</xdr:rowOff>
+      <xdr:rowOff>76262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>91170</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>85105</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvPr id="11" name="Диаграмма 10"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6029,6 +4620,38 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>8843</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Диаграмма 11"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -6036,20 +4659,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>748393</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>153081</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>759600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38719</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6070,969 +4693,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Мужчины"/>
-      <sheetName val="Женщины"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>18-24</v>
-          </cell>
-          <cell r="B2">
-            <v>83.939694417134589</v>
-          </cell>
-          <cell r="C2">
-            <v>85.155033934214003</v>
-          </cell>
-          <cell r="D2">
-            <v>73.224598564531732</v>
-          </cell>
-          <cell r="E2">
-            <v>55.101445864730451</v>
-          </cell>
-          <cell r="F2">
-            <v>69.841377850571064</v>
-          </cell>
-          <cell r="G2">
-            <v>44.510633631811693</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>25-29</v>
-          </cell>
-          <cell r="B3">
-            <v>86.087867515599399</v>
-          </cell>
-          <cell r="C3">
-            <v>83.533830900585656</v>
-          </cell>
-          <cell r="D3">
-            <v>73.598331555049057</v>
-          </cell>
-          <cell r="E3">
-            <v>60.83512933887237</v>
-          </cell>
-          <cell r="F3">
-            <v>67.576842916606921</v>
-          </cell>
-          <cell r="G3">
-            <v>47.090019347966127</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>30-34</v>
-          </cell>
-          <cell r="B4">
-            <v>87.045771368678274</v>
-          </cell>
-          <cell r="C4">
-            <v>83.277953572392605</v>
-          </cell>
-          <cell r="D4">
-            <v>74.094793543077586</v>
-          </cell>
-          <cell r="E4">
-            <v>62.993987709520155</v>
-          </cell>
-          <cell r="F4">
-            <v>66.725567276286867</v>
-          </cell>
-          <cell r="G4">
-            <v>47.935429912048448</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>35-39</v>
-          </cell>
-          <cell r="B5">
-            <v>87.051642009545617</v>
-          </cell>
-          <cell r="C5">
-            <v>83.31357350633553</v>
-          </cell>
-          <cell r="D5">
-            <v>74.127200785950606</v>
-          </cell>
-          <cell r="E5">
-            <v>60.404685183923462</v>
-          </cell>
-          <cell r="F5">
-            <v>66.427482122402125</v>
-          </cell>
-          <cell r="G5">
-            <v>46.276692790553625</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>40-44</v>
-          </cell>
-          <cell r="B6">
-            <v>87.275257938253972</v>
-          </cell>
-          <cell r="C6">
-            <v>83.964957219375023</v>
-          </cell>
-          <cell r="D6">
-            <v>74.80668926397739</v>
-          </cell>
-          <cell r="E6">
-            <v>59.031250327938558</v>
-          </cell>
-          <cell r="F6">
-            <v>67.558441261162912</v>
-          </cell>
-          <cell r="G6">
-            <v>45.993194381125775</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>45-49</v>
-          </cell>
-          <cell r="B7">
-            <v>88.822111613189989</v>
-          </cell>
-          <cell r="C7">
-            <v>85.582177245422656</v>
-          </cell>
-          <cell r="D7">
-            <v>77.260567180933947</v>
-          </cell>
-          <cell r="E7">
-            <v>64.166206702505818</v>
-          </cell>
-          <cell r="F7">
-            <v>68.683205508754995</v>
-          </cell>
-          <cell r="G7">
-            <v>49.641690680270358</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>50-54</v>
-          </cell>
-          <cell r="B8">
-            <v>91.837588214983384</v>
-          </cell>
-          <cell r="C8">
-            <v>85.79496708305355</v>
-          </cell>
-          <cell r="D8">
-            <v>79.715823331184396</v>
-          </cell>
-          <cell r="E8">
-            <v>70.844956845724738</v>
-          </cell>
-          <cell r="F8">
-            <v>70.454175039901045</v>
-          </cell>
-          <cell r="G8">
-            <v>54.617460560468693</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>55-59</v>
-          </cell>
-          <cell r="B9">
-            <v>95.334203608867043</v>
-          </cell>
-          <cell r="C9">
-            <v>86.03556841719184</v>
-          </cell>
-          <cell r="D9">
-            <v>82.558824538739628</v>
-          </cell>
-          <cell r="E9">
-            <v>84.069485225769711</v>
-          </cell>
-          <cell r="F9">
-            <v>73.243049686160688</v>
-          </cell>
-          <cell r="G9">
-            <v>64.315969084106129</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>60-64</v>
-          </cell>
-          <cell r="B10">
-            <v>95.402029208063979</v>
-          </cell>
-          <cell r="C10">
-            <v>88.349903522570941</v>
-          </cell>
-          <cell r="D10">
-            <v>84.7411243007666</v>
-          </cell>
-          <cell r="E10">
-            <v>82.428681293362345</v>
-          </cell>
-          <cell r="F10">
-            <v>76.225127735382458</v>
-          </cell>
-          <cell r="G10">
-            <v>65.570011012559206</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>65-69</v>
-          </cell>
-          <cell r="B11">
-            <v>96.822684123683985</v>
-          </cell>
-          <cell r="C11">
-            <v>91.975670116391882</v>
-          </cell>
-          <cell r="D11">
-            <v>89.280401496629068</v>
-          </cell>
-          <cell r="E11">
-            <v>89.968403393023749</v>
-          </cell>
-          <cell r="F11">
-            <v>82.371875196676996</v>
-          </cell>
-          <cell r="G11">
-            <v>75.441822053987437</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>70+</v>
-          </cell>
-          <cell r="B12">
-            <v>98.344656176603863</v>
-          </cell>
-          <cell r="C12">
-            <v>95.596434108967372</v>
-          </cell>
-          <cell r="D12">
-            <v>94.082150296379737</v>
-          </cell>
-          <cell r="E12">
-            <v>95.12817109702641</v>
-          </cell>
-          <cell r="F12">
-            <v>88.258357202943145</v>
-          </cell>
-          <cell r="G12">
-            <v>84.440628920919252</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>85.291230773062765</v>
-          </cell>
-          <cell r="C18">
-            <v>84.756724432319643</v>
-          </cell>
-          <cell r="D18">
-            <v>73.947981869545103</v>
-          </cell>
-          <cell r="E18">
-            <v>57.576064965336137</v>
-          </cell>
-          <cell r="F18">
-            <v>69.028995017257486</v>
-          </cell>
-          <cell r="G18">
-            <v>45.756056176810198</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>87.271377911752566</v>
-          </cell>
-          <cell r="C19">
-            <v>83.592440925453062</v>
-          </cell>
-          <cell r="D19">
-            <v>74.508198215489926</v>
-          </cell>
-          <cell r="E19">
-            <v>62.955766658810461</v>
-          </cell>
-          <cell r="F19">
-            <v>67.730488312681473</v>
-          </cell>
-          <cell r="G19">
-            <v>48.429321853995404</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>88.332795369582215</v>
-          </cell>
-          <cell r="C20">
-            <v>83.415591399946209</v>
-          </cell>
-          <cell r="D20">
-            <v>75.136985482015234</v>
-          </cell>
-          <cell r="E20">
-            <v>65.742490839707713</v>
-          </cell>
-          <cell r="F20">
-            <v>67.180261673843987</v>
-          </cell>
-          <cell r="G20">
-            <v>49.760435084581182</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>88.395970780164646</v>
-          </cell>
-          <cell r="C21">
-            <v>83.186714509170756</v>
-          </cell>
-          <cell r="D21">
-            <v>74.99666307210525</v>
-          </cell>
-          <cell r="E21">
-            <v>62.746892589688379</v>
-          </cell>
-          <cell r="F21">
-            <v>66.338587480111514</v>
-          </cell>
-          <cell r="G21">
-            <v>47.593312208957862</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>88.463249686408417</v>
-          </cell>
-          <cell r="C22">
-            <v>83.464031870318934</v>
-          </cell>
-          <cell r="D22">
-            <v>75.270622362148345</v>
-          </cell>
-          <cell r="E22">
-            <v>61.451099865782943</v>
-          </cell>
-          <cell r="F22">
-            <v>66.683015768008858</v>
-          </cell>
-          <cell r="G22">
-            <v>47.015476867255757</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>89.999909086562624</v>
-          </cell>
-          <cell r="C23">
-            <v>84.816775917478083</v>
-          </cell>
-          <cell r="D23">
-            <v>77.511414257480723</v>
-          </cell>
-          <cell r="E23">
-            <v>67.411651984744694</v>
-          </cell>
-          <cell r="F23">
-            <v>66.896286664723746</v>
-          </cell>
-          <cell r="G23">
-            <v>50.548487875939507</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>92.972493293618186</v>
-          </cell>
-          <cell r="C24">
-            <v>84.924644677838728</v>
-          </cell>
-          <cell r="D24">
-            <v>79.801475974797157</v>
-          </cell>
-          <cell r="E24">
-            <v>74.44326643688035</v>
-          </cell>
-          <cell r="F24">
-            <v>68.575852631333206</v>
-          </cell>
-          <cell r="G24">
-            <v>55.507255790013943</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>96.19060099930131</v>
-          </cell>
-          <cell r="C25">
-            <v>85.096044432978886</v>
-          </cell>
-          <cell r="D25">
-            <v>82.321339902026622</v>
-          </cell>
-          <cell r="E25">
-            <v>87.145825234593161</v>
-          </cell>
-          <cell r="F25">
-            <v>71.01865275196829</v>
-          </cell>
-          <cell r="G25">
-            <v>64.283952161227916</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>96.474483462137854</v>
-          </cell>
-          <cell r="C26">
-            <v>87.385784600610592</v>
-          </cell>
-          <cell r="D26">
-            <v>84.681136543744117</v>
-          </cell>
-          <cell r="E26">
-            <v>86.300055424386102</v>
-          </cell>
-          <cell r="F26">
-            <v>73.816218362341971</v>
-          </cell>
-          <cell r="G26">
-            <v>66.072927411357355</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>97.642271934451585</v>
-          </cell>
-          <cell r="C27">
-            <v>90.919021081533259</v>
-          </cell>
-          <cell r="D27">
-            <v>88.965269605324778</v>
-          </cell>
-          <cell r="E27">
-            <v>92.22803491553789</v>
-          </cell>
-          <cell r="F27">
-            <v>79.584077457966174</v>
-          </cell>
-          <cell r="G27">
-            <v>74.581136020844525</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>98.836053142368371</v>
-          </cell>
-          <cell r="C28">
-            <v>94.323632019451253</v>
-          </cell>
-          <cell r="D28">
-            <v>93.286859930295961</v>
-          </cell>
-          <cell r="E28">
-            <v>96.306211248200526</v>
-          </cell>
-          <cell r="F28">
-            <v>86.738471585647048</v>
-          </cell>
-          <cell r="G28">
-            <v>83.944654043623956</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>18-24</v>
-          </cell>
-          <cell r="B2">
-            <v>89.411020846973869</v>
-          </cell>
-          <cell r="C2">
-            <v>76.817540106922621</v>
-          </cell>
-          <cell r="D2">
-            <v>70.411706840167469</v>
-          </cell>
-          <cell r="E2">
-            <v>79.141828896836302</v>
-          </cell>
-          <cell r="F2">
-            <v>54.722330066387123</v>
-          </cell>
-          <cell r="G2">
-            <v>47.824765018240683</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>25-29</v>
-          </cell>
-          <cell r="B3">
-            <v>90.573378454025843</v>
-          </cell>
-          <cell r="C3">
-            <v>76.635856604928065</v>
-          </cell>
-          <cell r="D3">
-            <v>70.974775231024239</v>
-          </cell>
-          <cell r="E3">
-            <v>72.929861513019844</v>
-          </cell>
-          <cell r="F3">
-            <v>53.464746672276746</v>
-          </cell>
-          <cell r="G3">
-            <v>44.611437706394042</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>30-34</v>
-          </cell>
-          <cell r="B4">
-            <v>91.823637100861504</v>
-          </cell>
-          <cell r="C4">
-            <v>77.14003537966542</v>
-          </cell>
-          <cell r="D4">
-            <v>72.181843827366706</v>
-          </cell>
-          <cell r="E4">
-            <v>79.417808717043187</v>
-          </cell>
-          <cell r="F4">
-            <v>52.636939682320559</v>
-          </cell>
-          <cell r="G4">
-            <v>46.31825545303132</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>35-39</v>
-          </cell>
-          <cell r="B5">
-            <v>89.914716638593262</v>
-          </cell>
-          <cell r="C5">
-            <v>77.8811176384352</v>
-          </cell>
-          <cell r="D5">
-            <v>71.624203046732291</v>
-          </cell>
-          <cell r="E5">
-            <v>78.021876943189</v>
-          </cell>
-          <cell r="F5">
-            <v>52.164503210323531</v>
-          </cell>
-          <cell r="G5">
-            <v>45.481159972454876</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>40-44</v>
-          </cell>
-          <cell r="B6">
-            <v>89.613474696485355</v>
-          </cell>
-          <cell r="C6">
-            <v>77.765814653266318</v>
-          </cell>
-          <cell r="D6">
-            <v>71.335884790360382</v>
-          </cell>
-          <cell r="E6">
-            <v>75.647358549629416</v>
-          </cell>
-          <cell r="F6">
-            <v>52.141419550683551</v>
-          </cell>
-          <cell r="G6">
-            <v>44.646950969746889</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>45-49</v>
-          </cell>
-          <cell r="B7">
-            <v>90.470631618723345</v>
-          </cell>
-          <cell r="C7">
-            <v>75.665203424092496</v>
-          </cell>
-          <cell r="D7">
-            <v>70.079682721652645</v>
-          </cell>
-          <cell r="E7">
-            <v>70.43189560026245</v>
-          </cell>
-          <cell r="F7">
-            <v>52.50713722596943</v>
-          </cell>
-          <cell r="G7">
-            <v>43.023177319508513</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>50-54</v>
-          </cell>
-          <cell r="B8">
-            <v>90.668474452646066</v>
-          </cell>
-          <cell r="C8">
-            <v>74.642353880175406</v>
-          </cell>
-          <cell r="D8">
-            <v>69.316956845538712</v>
-          </cell>
-          <cell r="E8">
-            <v>66.604348730721497</v>
-          </cell>
-          <cell r="F8">
-            <v>52.449582192961316</v>
-          </cell>
-          <cell r="G8">
-            <v>41.527922632885804</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>55-59</v>
-          </cell>
-          <cell r="B9">
-            <v>93.563854067114221</v>
-          </cell>
-          <cell r="C9">
-            <v>75.754616415110974</v>
-          </cell>
-          <cell r="D9">
-            <v>72.002206429487288</v>
-          </cell>
-          <cell r="E9">
-            <v>77.799353783124374</v>
-          </cell>
-          <cell r="F9">
-            <v>54.528345685272164</v>
-          </cell>
-          <cell r="G9">
-            <v>47.185765752345098</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>60-64</v>
-          </cell>
-          <cell r="B10">
-            <v>95.389669892465477</v>
-          </cell>
-          <cell r="C10">
-            <v>75.579920681604932</v>
-          </cell>
-          <cell r="D10">
-            <v>72.916099534123475</v>
-          </cell>
-          <cell r="E10">
-            <v>82.417676991374094</v>
-          </cell>
-          <cell r="F10">
-            <v>56.260351897854306</v>
-          </cell>
-          <cell r="G10">
-            <v>50.231178360011647</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>65-69</v>
-          </cell>
-          <cell r="B11">
-            <v>92.996568910708035</v>
-          </cell>
-          <cell r="C11">
-            <v>78.218938163931483</v>
-          </cell>
-          <cell r="D11">
-            <v>73.867471446320266</v>
-          </cell>
-          <cell r="E11">
-            <v>72.735679930628748</v>
-          </cell>
-          <cell r="F11">
-            <v>58.403822172510225</v>
-          </cell>
-          <cell r="G11">
-            <v>47.913996894730445</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>70+</v>
-          </cell>
-          <cell r="B12">
-            <v>94.650779127332228</v>
-          </cell>
-          <cell r="C12">
-            <v>78.579793903916226</v>
-          </cell>
-          <cell r="D12">
-            <v>75.238317568769162</v>
-          </cell>
-          <cell r="E12">
-            <v>86.889479333664113</v>
-          </cell>
-          <cell r="F12">
-            <v>60.667160121719277</v>
-          </cell>
-          <cell r="G12">
-            <v>55.579255482569295</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>89.884804728424513</v>
-          </cell>
-          <cell r="C18">
-            <v>76.904322818746124</v>
-          </cell>
-          <cell r="D18">
-            <v>70.778718400329453</v>
-          </cell>
-          <cell r="E18">
-            <v>80.239077089886621</v>
-          </cell>
-          <cell r="F18">
-            <v>55.107750427087829</v>
-          </cell>
-          <cell r="G18">
-            <v>48.522321752145153</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>91.154758114530537</v>
-          </cell>
-          <cell r="C19">
-            <v>77.357086004302332</v>
-          </cell>
-          <cell r="D19">
-            <v>71.955717713590403</v>
-          </cell>
-          <cell r="E19">
-            <v>74.693504694377992</v>
-          </cell>
-          <cell r="F19">
-            <v>54.570467812794412</v>
-          </cell>
-          <cell r="G19">
-            <v>46.055295883469583</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>92.633765062872143</v>
-          </cell>
-          <cell r="C20">
-            <v>78.210963737683983</v>
-          </cell>
-          <cell r="D20">
-            <v>73.631469311685265</v>
-          </cell>
-          <cell r="E20">
-            <v>81.176540821721929</v>
-          </cell>
-          <cell r="F20">
-            <v>54.222726882492019</v>
-          </cell>
-          <cell r="G20">
-            <v>48.166454659703177</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>91.208411725607931</v>
-          </cell>
-          <cell r="C21">
-            <v>79.13134008694081</v>
-          </cell>
-          <cell r="D21">
-            <v>73.523223860250027</v>
-          </cell>
-          <cell r="E21">
-            <v>80.69996694072357</v>
-          </cell>
-          <cell r="F21">
-            <v>54.007660375320079</v>
-          </cell>
-          <cell r="G21">
-            <v>47.829619312046148</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>90.23121033413544</v>
-          </cell>
-          <cell r="C22">
-            <v>79.144452104951654</v>
-          </cell>
-          <cell r="D22">
-            <v>72.898012924732612</v>
-          </cell>
-          <cell r="E22">
-            <v>76.988914680961656</v>
-          </cell>
-          <cell r="F22">
-            <v>54.249135789589396</v>
-          </cell>
-          <cell r="G22">
-            <v>46.679999191302919</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>91.513845551738214</v>
-          </cell>
-          <cell r="C23">
-            <v>77.324013035922405</v>
-          </cell>
-          <cell r="D23">
-            <v>72.150370581197222</v>
-          </cell>
-          <cell r="E23">
-            <v>73.717949055873603</v>
-          </cell>
-          <cell r="F23">
-            <v>54.616372966179576</v>
-          </cell>
-          <cell r="G23">
-            <v>45.714551055667968</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>92.080464751914164</v>
-          </cell>
-          <cell r="C24">
-            <v>76.704245165018094</v>
-          </cell>
-          <cell r="D24">
-            <v>71.956839669012012</v>
-          </cell>
-          <cell r="E24">
-            <v>71.031874260794211</v>
-          </cell>
-          <cell r="F24">
-            <v>55.444343909364889</v>
-          </cell>
-          <cell r="G24">
-            <v>45.219235297167764</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>94.805658425834665</v>
-          </cell>
-          <cell r="C25">
-            <v>78.28983893914679</v>
-          </cell>
-          <cell r="D25">
-            <v>75.069471682335973</v>
-          </cell>
-          <cell r="E25">
-            <v>81.293532013247841</v>
-          </cell>
-          <cell r="F25">
-            <v>57.171925555457875</v>
-          </cell>
-          <cell r="G25">
-            <v>50.524565259504065</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>96.436580689537081</v>
-          </cell>
-          <cell r="C26">
-            <v>79.077410446829674</v>
-          </cell>
-          <cell r="D26">
-            <v>76.832143815210131</v>
-          </cell>
-          <cell r="E26">
-            <v>85.463170230732672</v>
-          </cell>
-          <cell r="F26">
-            <v>60.477753868221768</v>
-          </cell>
-          <cell r="G26">
-            <v>54.836408959392706</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>94.900066872326818</v>
-          </cell>
-          <cell r="C27">
-            <v>82.805561881652679</v>
-          </cell>
-          <cell r="D27">
-            <v>79.277510460499997</v>
-          </cell>
-          <cell r="E27">
-            <v>78.180811162482499</v>
-          </cell>
-          <cell r="F27">
-            <v>66.068164102373231</v>
-          </cell>
-          <cell r="G27">
-            <v>55.782231746641841</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>95.588238254263899</v>
-          </cell>
-          <cell r="C28">
-            <v>86.83259519120908</v>
-          </cell>
-          <cell r="D28">
-            <v>83.486619881896232</v>
-          </cell>
-          <cell r="E28">
-            <v>92.117087576133088</v>
-          </cell>
-          <cell r="F28">
-            <v>75.639357490135112</v>
-          </cell>
-          <cell r="G28">
-            <v>71.040818975564449</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -7097,7 +4757,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>25-29</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7368,11 +5034,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T45" sqref="T45"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="3" width="6.21875" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" customWidth="1"/>
+    <col min="6" max="7" width="6.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
       <c r="A1" s="1" t="s">
@@ -7987,11 +5659,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q27" sqref="Q27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="3" width="6.21875" customWidth="1"/>
+    <col min="4" max="5" width="6.109375" customWidth="1"/>
+    <col min="6" max="6" width="6.21875" customWidth="1"/>
+    <col min="7" max="7" width="6.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="16.5" thickTop="1" thickBot="1">
       <c r="A1" s="1" t="s">
